--- a/biology/Zoologie/Cenomanocarcinidae/Cenomanocarcinidae.xlsx
+++ b/biology/Zoologie/Cenomanocarcinidae/Cenomanocarcinidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cenomanocarcinidae forment une famille éteinte de crabes datant du Crétacé. Elle comprend neuf espèces dans deux genres.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>† Campylostoma Bell, 1858
 † Cenomanocarcinus Van Straelen, 1936</t>
@@ -542,7 +556,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Guinot, Vega &amp; van Bakel, 2008 : Cenomanocarcinidae n. fam., a new Cretaceous podotreme family (Crustacea, Decapoda, Brachyura, Raninoidia), with comments on related families. Geodiversitas, vol. 30, n. 4, p. 681–719 (texte original).</t>
         </is>
@@ -572,7 +588,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">(en)  Ng, Guinot &amp; Davie, 2008 : Systema Brachyurorum: Part I. An annotated checklist of extant brachyuran crabs of the world. Raffles Bulletin of Zoology Supplement, n. 17, p. 1–286.
 (en) De Grave &amp; al., 2009 : A Classification of Living and Fossil Genera of Decapod Crustaceans. Raffles Bulletin of Zoology Supplement, n. 21, p. 1-109.
